--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H2">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I2">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J2">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.93158966666667</v>
+        <v>10.13412066666667</v>
       </c>
       <c r="N2">
-        <v>161.794769</v>
+        <v>30.402362</v>
       </c>
       <c r="O2">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="P2">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="Q2">
-        <v>7350.209993955411</v>
+        <v>690.724152879488</v>
       </c>
       <c r="R2">
-        <v>66151.8899455987</v>
+        <v>6216.517375915392</v>
       </c>
       <c r="S2">
-        <v>0.1951410117872804</v>
+        <v>0.05493265096150726</v>
       </c>
       <c r="T2">
-        <v>0.1951410117872804</v>
+        <v>0.05493265096150724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H3">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I3">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J3">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>25.802125</v>
       </c>
       <c r="O3">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="P3">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="Q3">
-        <v>1172.170387290375</v>
+        <v>586.2094179759999</v>
       </c>
       <c r="R3">
-        <v>10549.53348561338</v>
+        <v>5275.884761784</v>
       </c>
       <c r="S3">
-        <v>0.03111999732674844</v>
+        <v>0.04662069107295613</v>
       </c>
       <c r="T3">
-        <v>0.03111999732674844</v>
+        <v>0.04662069107295611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H4">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I4">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J4">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.11960666666667</v>
+        <v>11.67245633333333</v>
       </c>
       <c r="N4">
-        <v>30.35882</v>
+        <v>35.017369</v>
       </c>
       <c r="O4">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848838</v>
       </c>
       <c r="P4">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848837</v>
       </c>
       <c r="Q4">
-        <v>1379.17748236158</v>
+        <v>795.5744536754559</v>
       </c>
       <c r="R4">
-        <v>12412.59734125422</v>
+        <v>7160.170083079103</v>
       </c>
       <c r="S4">
-        <v>0.03661583676705842</v>
+        <v>0.06327129809411861</v>
       </c>
       <c r="T4">
-        <v>0.03661583676705842</v>
+        <v>0.06327129809411859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.93158966666667</v>
+        <v>10.13412066666667</v>
       </c>
       <c r="N5">
-        <v>161.794769</v>
+        <v>30.402362</v>
       </c>
       <c r="O5">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="P5">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="Q5">
-        <v>7741.295833260269</v>
+        <v>1454.643309709663</v>
       </c>
       <c r="R5">
-        <v>69671.66249934242</v>
+        <v>13091.78978738696</v>
       </c>
       <c r="S5">
-        <v>0.2055239649873098</v>
+        <v>0.1156864326701982</v>
       </c>
       <c r="T5">
-        <v>0.2055239649873098</v>
+        <v>0.1156864326701982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>430.617522</v>
       </c>
       <c r="I6">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J6">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>25.802125</v>
       </c>
       <c r="O6">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="P6">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="Q6">
         <v>1234.538569981583</v>
@@ -818,10 +818,10 @@
         <v>11110.84712983425</v>
       </c>
       <c r="S6">
-        <v>0.0327758126413728</v>
+        <v>0.09818170695291829</v>
       </c>
       <c r="T6">
-        <v>0.03277581264137279</v>
+        <v>0.09818170695291825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>430.617522</v>
       </c>
       <c r="I7">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J7">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.11960666666667</v>
+        <v>11.67245633333333</v>
       </c>
       <c r="N7">
-        <v>30.35882</v>
+        <v>35.017369</v>
       </c>
       <c r="O7">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848838</v>
       </c>
       <c r="P7">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848837</v>
       </c>
       <c r="Q7">
-        <v>1452.559982138227</v>
+        <v>1675.454740637735</v>
       </c>
       <c r="R7">
-        <v>13073.03983924404</v>
+        <v>15079.09266573962</v>
       </c>
       <c r="S7">
-        <v>0.0385640716155418</v>
+        <v>0.1332473608828809</v>
       </c>
       <c r="T7">
-        <v>0.03856407161554179</v>
+        <v>0.1332473608828809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H8">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I8">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J8">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.93158966666667</v>
+        <v>10.13412066666667</v>
       </c>
       <c r="N8">
-        <v>161.794769</v>
+        <v>30.402362</v>
       </c>
       <c r="O8">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="P8">
-        <v>0.7423286411293627</v>
+        <v>0.3332793623493037</v>
       </c>
       <c r="Q8">
-        <v>12869.15373304202</v>
+        <v>2045.293304761195</v>
       </c>
       <c r="R8">
-        <v>115822.3835973782</v>
+        <v>18407.63974285076</v>
       </c>
       <c r="S8">
-        <v>0.3416636643547726</v>
+        <v>0.1626602787175982</v>
       </c>
       <c r="T8">
-        <v>0.3416636643547725</v>
+        <v>0.1626602787175982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H9">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I9">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J9">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>25.802125</v>
       </c>
       <c r="O9">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="P9">
-        <v>0.1183824205682444</v>
+        <v>0.2828502524658126</v>
       </c>
       <c r="Q9">
-        <v>2052.300672737861</v>
+        <v>1735.81623398575</v>
       </c>
       <c r="R9">
-        <v>18470.70605464075</v>
+        <v>15622.34610587175</v>
       </c>
       <c r="S9">
-        <v>0.0544866106001232</v>
+        <v>0.1380478544399382</v>
       </c>
       <c r="T9">
-        <v>0.0544866106001232</v>
+        <v>0.1380478544399382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H10">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I10">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J10">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.11960666666667</v>
+        <v>11.67245633333333</v>
       </c>
       <c r="N10">
-        <v>30.35882</v>
+        <v>35.017369</v>
       </c>
       <c r="O10">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848838</v>
       </c>
       <c r="P10">
-        <v>0.1392889383023929</v>
+        <v>0.3838703851848837</v>
       </c>
       <c r="Q10">
-        <v>2414.740131269329</v>
+        <v>2355.764014850301</v>
       </c>
       <c r="R10">
-        <v>21732.66118142396</v>
+        <v>21201.87613365271</v>
       </c>
       <c r="S10">
-        <v>0.06410902991979274</v>
+        <v>0.1873517262078842</v>
       </c>
       <c r="T10">
-        <v>0.06410902991979274</v>
+        <v>0.1873517262078842</v>
       </c>
     </row>
   </sheetData>
